--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60523\Desktop\github\CrackSeg_Benchmark_Study\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fibe-cdt\Desktop\github\mygithubrepo\CrackSeg_Benchmark_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362EC92-908C-43E5-BA6B-14F326D3E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{A534252D-0987-48FC-896F-633079FA3096}"/>
+    <workbookView xWindow="4770" yWindow="4290" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>Model 1</t>
   </si>
@@ -128,11 +127,23 @@
   <si>
     <t>9. Models genearlly performance well in ashplat pavemenet, as it is more similar to the trianing datset, no crack-like noise were used in the training datset.</t>
   </si>
+  <si>
+    <t>DeepCrack</t>
+  </si>
+  <si>
+    <t>VGG16+Unet</t>
+  </si>
+  <si>
+    <t>ResNet34+Unet</t>
+  </si>
+  <si>
+    <t>Localized Thresholding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,9 +195,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -195,6 +203,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,6 +221,2614 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86523308550043354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34264595973202666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47874152563979777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D0E-4B1F-99AA-7BAA1C200103}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71852785823762511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56216349047453151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61725822865969326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D0E-4B1F-99AA-7BAA1C200103}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.64461572493883335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54485031245308824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55571780915155988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D0E-4B1F-99AA-7BAA1C200103}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.43918540170313419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1502481950808911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19551866335579113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D0E-4B1F-99AA-7BAA1C200103}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:axId val="375190488"/>
+        <c:axId val="375188848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="375190488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375188848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="375188848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="375190488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1131822807863301E-2"/>
+          <c:y val="9.9169821631846899E-2"/>
+          <c:w val="0.87784527554291358"/>
+          <c:h val="0.85245627673323143"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepCrack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91479564032016714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26622020620407255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39412344685633582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50AB-4D97-920C-BBA9B9C83C78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VGG16+Unet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81824478901911823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50579631659746582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60232630392866782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50AB-4D97-920C-BBA9B9C83C78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ResNet34+Unet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7874762305423777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4526866679973261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52818597135527001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-50AB-4D97-920C-BBA9B9C83C78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Localized Thresholding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.54988587738294092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1652325944660995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23396410196021344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-50AB-4D97-920C-BBA9B9C83C78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="373937600"/>
+        <c:axId val="373938584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="373937600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373938584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373938584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373937600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69057254073167218"/>
+          <c:y val="0.30684321377288526"/>
+          <c:w val="0.25082507228954698"/>
+          <c:h val="0.20502230014734663"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>118781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,45 +3127,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAFBC4C-10B2-493F-901D-CE6F74621B17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="S1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -590,49 +3209,49 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.96343354671389503</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.21903715013408601</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.349205589960361</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.96589927584991098</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.14105662357950599</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.243338331593729</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>0.90284495771121898</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>0.35635198162752202</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>0.50495351048371495</v>
       </c>
       <c r="S3" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>0.802546631815791</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="4">
         <v>0.31980258990620097</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <v>0.43505488423326899</v>
       </c>
     </row>
@@ -640,49 +3259,49 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.91528905063598598</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.507031782981894</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.63765061050377503</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.92241616840832097</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.35342474228457699</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.50363399368742101</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>0.78031891503154005</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0.56544159095574797</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>0.64559822088651697</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>0.61554276358110005</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <v>0.556699989672504</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>0.57002490828165397</v>
       </c>
     </row>
@@ -690,49 +3309,49 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.935176448515188</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.42685871756454502</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.57029417793149395</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.92227054886381199</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.249963533503262</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.384587392938124</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>0.73291190515717897</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>0.53331491938975295</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>0.60290051743318795</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>0.49745542457492398</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>0.56407596755864697</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>0.477079962015513</v>
       </c>
     </row>
@@ -740,49 +3359,49 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.66277080804691701</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.1846924540463</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.278543759813213</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.65694559475579895</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.17275789352632101</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.26218584181700699</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>0.347267575518942</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>0.11689893738445201</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>0.15393578435445701</v>
       </c>
       <c r="S6" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2">
         <v>0.59238177867678798</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <v>0.205830291241623</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>0.26482346169134802</v>
       </c>
     </row>
@@ -799,74 +3418,74 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4">
         <f>(B3*25+H3*15+N3*25+T3*15)/80</f>
         <v>0.91479564032016714</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:D11" si="0">(C3*25+I3*15+O3*25+U3*15)/80</f>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11" si="0">(C3*25+I3*15+O3*25+U3*15)/80</f>
         <v>0.26622020620407255</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f>(D3*25+J3*15+P3*25+V3*15)/80</f>
         <v>0.39412344685633582</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4">
         <f t="shared" ref="B12:B14" si="1">(B4*25+H4*15+N4*25+T4*15)/80</f>
         <v>0.81824478901911823</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:D14" si="2">(C4*25+I4*15+O4*25+U4*15)/80</f>
         <v>0.50579631659746582</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f t="shared" si="2"/>
         <v>0.60232630392866782</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>0.7874762305423777</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <f t="shared" si="2"/>
         <v>0.4526866679973261</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f t="shared" ref="D13:D14" si="3">(D5*25+J5*15+P5*25+V5*15)/80</f>
         <v>0.52818597135527001</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>0.54988587738294092</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f t="shared" si="2"/>
         <v>0.1652325944660995</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f t="shared" si="3"/>
         <v>0.23396410196021344</v>
       </c>
@@ -901,30 +3520,30 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <f>(B3*25+H3*15)/40</f>
         <v>0.96435819513990106</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <f t="shared" ref="C18:D18" si="4">(C3*25+I3*15)/40</f>
         <v>0.1897944526761185</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <f t="shared" si="4"/>
         <v>0.30950536807287399</v>
       </c>
       <c r="M18" t="s">
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
         <f>(N3*25+T3*15)/40</f>
         <v>0.86523308550043354</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="4">
         <f t="shared" ref="O18:O21" si="5">(O3*25+U3*15)/40</f>
         <v>0.34264595973202666</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
         <f t="shared" ref="P18:P21" si="6">(P3*25+V3*15)/40</f>
         <v>0.47874152563979777</v>
       </c>
@@ -933,30 +3552,30 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <f t="shared" ref="B19:B21" si="7">(B4*25+H4*15)/40</f>
         <v>0.9179617198006117</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <f t="shared" ref="C19:C21" si="8">(C4*25+I4*15)/40</f>
         <v>0.44942914272040008</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <f t="shared" ref="D19:D21" si="9">(D4*25+J4*15)/40</f>
         <v>0.58739437919764226</v>
       </c>
       <c r="M19" t="s">
         <v>4</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <f t="shared" ref="N19:N21" si="10">(N4*25+T4*15)/40</f>
         <v>0.71852785823762511</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <f t="shared" si="5"/>
         <v>0.56216349047453151</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <f t="shared" si="6"/>
         <v>0.61725822865969326</v>
       </c>
@@ -965,30 +3584,30 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <f t="shared" si="7"/>
         <v>0.93033673614592194</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <f t="shared" si="8"/>
         <v>0.36052302354156385</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <f t="shared" si="9"/>
         <v>0.50065413355898014</v>
       </c>
       <c r="M20" t="s">
         <v>5</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <f t="shared" si="10"/>
         <v>0.64461572493883335</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <f t="shared" si="5"/>
         <v>0.54485031245308824</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <f t="shared" si="6"/>
         <v>0.55571780915155988</v>
       </c>
@@ -997,32 +3616,57 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <f t="shared" si="7"/>
         <v>0.66058635306274771</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <f t="shared" si="8"/>
         <v>0.18021699385130791</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <f t="shared" si="9"/>
         <v>0.27240954056463573</v>
       </c>
       <c r="M21" t="s">
         <v>6</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <f t="shared" si="10"/>
         <v>0.43918540170313419</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <f t="shared" si="5"/>
         <v>0.1502481950808911</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <f t="shared" si="6"/>
         <v>0.19551866335579113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <f>AVERAGE(B18:B21)</f>
+        <v>0.8683107510372956</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:D22" si="11">AVERAGE(C18:C21)</f>
+        <v>0.29499090319734761</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="11"/>
+        <v>0.41749085534853303</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" ref="O22" si="12">AVERAGE(O18:O21)</f>
+        <v>0.39997698943513443</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" ref="P22" si="13">AVERAGE(P18:P21)</f>
+        <v>0.46180905670171046</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1043,16 +3687,16 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <f>(SUM(B3:B6)/4)</f>
         <v>0.86916746347799645</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <f>(SUM(C3:C6)/4)</f>
         <v>0.33440502618170626</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="C25:D25" si="11">(SUM(D3:D6)/4)</f>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25" si="14">(SUM(D3:D6)/4)</f>
         <v>0.45892353455221074</v>
       </c>
     </row>
@@ -1060,16 +3704,16 @@
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>SUM(H3:H6)/4</f>
         <v>0.86688289696946064</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" ref="C26:D26" si="12">SUM(I3:I6)/4</f>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:D26" si="15">SUM(I3:I6)/4</f>
         <v>0.22930069822341648</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" si="12"/>
+      <c r="D26" s="4">
+        <f t="shared" si="15"/>
         <v>0.34843639000907023</v>
       </c>
       <c r="H26" t="s">
@@ -1080,15 +3724,15 @@
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <f>SUM(N3:N6)/4</f>
         <v>0.69083583835471996</v>
       </c>
-      <c r="C27" s="5">
-        <f t="shared" ref="C27:D27" si="13">SUM(O3:O6)/4</f>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27" si="16">SUM(O3:O6)/4</f>
         <v>0.39300185733936871</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f>SUM(P3:P6)/4</f>
         <v>0.47684700828946924</v>
       </c>
@@ -1100,16 +3744,16 @@
       <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <f>SUM(T3:T6)/4</f>
         <v>0.62698164966215075</v>
       </c>
-      <c r="C28" s="5">
-        <f t="shared" ref="C28:D28" si="14">SUM(U3:U6)/4</f>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28:D28" si="17">SUM(U3:U6)/4</f>
         <v>0.4116022095947437</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" si="14"/>
+      <c r="D28" s="4">
+        <f t="shared" si="17"/>
         <v>0.436745804055446</v>
       </c>
       <c r="H28" t="s">
@@ -1117,7 +3761,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H29" t="s">
@@ -1128,16 +3772,16 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>(B25+B27)/2</f>
         <v>0.7800016509163582</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" ref="C30:D30" si="15">(C25+C27)/2</f>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:D30" si="18">(C25+C27)/2</f>
         <v>0.36370344176053748</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="15"/>
+      <c r="D30" s="5">
+        <f t="shared" si="18"/>
         <v>0.46788527142084002</v>
       </c>
       <c r="H30" t="s">
@@ -1148,16 +3792,16 @@
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <f>(B26+B28)/2</f>
         <v>0.74693227331580569</v>
       </c>
-      <c r="C31" s="6">
-        <f t="shared" ref="C31:D31" si="16">(C26+C28)/2</f>
+      <c r="C31" s="5">
+        <f t="shared" ref="C31:D31" si="19">(C26+C28)/2</f>
         <v>0.32045145390908009</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="16"/>
+      <c r="D31" s="5">
+        <f t="shared" si="19"/>
         <v>0.39259109703225814</v>
       </c>
       <c r="H31" t="s">
@@ -1189,5 +3833,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4290" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="4770" yWindow="0" windowWidth="10575" windowHeight="3435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>Model 1</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>Localized Thresholding</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -201,7 +204,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2770,16 +2772,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39219</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>59950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20169</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>2801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2801,15 +2803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>118781</xdr:rowOff>
+      <xdr:colOff>246531</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>73958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>414619</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>470649</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3128,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,30 +3144,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3645,6 +3647,9 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
       <c r="B22" s="4">
         <f>AVERAGE(B18:B21)</f>
         <v>0.8683107510372956</v>
@@ -3761,7 +3766,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H29" t="s">
@@ -3772,15 +3777,15 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <f>(B25+B27)/2</f>
         <v>0.7800016509163582</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <f t="shared" ref="C30:D30" si="18">(C25+C27)/2</f>
         <v>0.36370344176053748</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="18"/>
         <v>0.46788527142084002</v>
       </c>
@@ -3792,15 +3797,15 @@
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <f>(B26+B28)/2</f>
         <v>0.74693227331580569</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <f t="shared" ref="C31:D31" si="19">(C26+C28)/2</f>
         <v>0.32045145390908009</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="19"/>
         <v>0.39259109703225814</v>
       </c>
@@ -3813,14 +3818,45 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <f>(B25*25+B26*15)/40</f>
+        <v>0.8683107510372956</v>
+      </c>
+      <c r="C34" s="4">
+        <f>(C25*25+C26*15)/40</f>
+        <v>0.29499090319734761</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="C34:D36" si="20">(D25*25+D26*15)/40</f>
+        <v>0.41749085534853309</v>
+      </c>
       <c r="H34" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <f>(B27*25+B28*15)/40</f>
+        <v>0.66689051759500662</v>
+      </c>
+      <c r="C36" s="4">
+        <f>(C27*25+C28*15)/40</f>
+        <v>0.39997698943513432</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="20"/>
+        <v>0.46180905670171046</v>
       </c>
     </row>
   </sheetData>
